--- a/data/trans_bre/P23_6_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_6_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,85</t>
+          <t>5,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>66,87%</t>
+          <t>208,52%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>168,85%</t>
+          <t>53,4%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>301,8%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>88,29%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,03; 7,08</t>
+          <t>1,14; 10,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 6,28</t>
+          <t>-2,38; 6,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 8,13</t>
+          <t>1,68; 9,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 296,24</t>
+          <t>-0,27; 13,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,35; 233,58</t>
+          <t>-12,11; 1330,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,51; 489,41</t>
+          <t>-46,18; 373,52</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3,88; 1976,61</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-11,65; 340,59</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>92,87%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>47,91%</t>
+          <t>-0,13%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>22,2%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-23,46%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 5,57</t>
+          <t>-4,09; 6,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 5,94</t>
+          <t>-13,06; 5,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 5,34</t>
+          <t>-3,84; 5,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-50,23; 161,36</t>
+          <t>-7,13; 3,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-58,54; 839,55</t>
+          <t>-55,46; 275,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,06; 304,32</t>
+          <t>-90,17; 487,87</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-61,59; 336,24</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-75,62; 139,02</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,71</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,83</t>
+          <t>-22,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-10,99</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-78,38%</t>
+          <t>-20,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-51,83%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>-76,18%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-64,15%</t>
         </is>
       </c>
     </row>
@@ -802,30 +868,40 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,6; 0,49</t>
+          <t>-24,78; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-31,92; 4,56</t>
+          <t>-64,44; 2,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 7,41</t>
+          <t>-39,05; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-62,64; 10,53</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 129,05</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>36,79%</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,51%</t>
+          <t>56,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>89,35%</t>
+          <t>-20,54%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>50,1%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3,17%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 4,34</t>
+          <t>-0,96; 5,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 4,29</t>
+          <t>-10,15; 2,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,76</t>
+          <t>-1,84; 5,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 119,53</t>
+          <t>-10,15; 5,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,62; 137,03</t>
+          <t>-19,74; 229,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,42; 269,72</t>
+          <t>-70,3; 72,47</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-37,41; 215,77</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-61,77; 88,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P23_6_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_6_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,69</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,02</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,35</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>5,97</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>208,52%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>53,4%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>301,8%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>88,29%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.144837557652796</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.595159152538758</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5.788298051158951</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>6.253703377659408</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>2.971837232040453</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.5678258175771373</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>3.425956537859178</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.9171013583277697</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>1,14; 10,08</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,38; 6,19</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,68; 9,98</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,27; 13,07</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-12,11; 1330,66</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-46,18; 373,52</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>3,88; 1976,61</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-11,65; 340,59</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>2.155074105680414</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.831244282678618</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.98331388720111</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.04766958847109006</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.1133912126036863</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.5011850865739371</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.2503848143175256</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.07049854347746261</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>12.98038803016042</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.016631717568464</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.51927072878511</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>13.78075575526118</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>18.26232182059033</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>3.713622920469583</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>21.38628085705773</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>3.775620759826539</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,33</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>17,13%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-0,13%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>22,2%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-23,46%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,09; 6,89</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-13,06; 5,04</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,84; 5,89</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,13; 3,56</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-55,46; 275,18</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-90,17; 487,87</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-61,59; 336,24</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-75,62; 139,02</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.368041445154732</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.1273663807033962</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.9941958490492904</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-1.348689171296687</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.2747900739815028</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.02494687706938126</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2265397370405429</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.2397803069171954</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-5,12</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-22,86</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-10,99</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-20,28</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-76,18%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-64,15%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.53625098591428</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-12.96175970951535</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-4.200439979896682</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-7.318408679376202</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.5380603940156649</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.9003717780500441</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.6470843351662947</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.7720705713370315</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-24,78; 0,0</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-64,44; 2,27</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-39,05; 0,0</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-62,64; 10,53</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.176865872673067</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.892477127783748</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.828210676215853</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.39363573736663</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>2.771193811513821</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>5.179747922494279</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>3.258618630496011</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.31866789997757</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,181 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,15</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,47</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>56,2%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-20,54%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>50,1%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,17%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-4.260254547813185</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-19.94117596628478</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-10.46009401924695</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-19.55302027418695</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.7339158116075324</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.6345003254551633</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,96; 5,26</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-10,15; 2,76</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,84; 5,03</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-10,15; 5,12</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-19,74; 229,98</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-70,3; 72,47</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-37,41; 215,77</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-61,77; 88,43</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-21.53457644174564</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-59.79111504674014</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-37.63515936196588</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-60.88011537794746</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.761681744416845</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>10.98057544360269</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>3.120306679018032</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.8822657002401812</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.103819226707136</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.4266864440147469</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.888826244857823</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.122930239291982</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.5618359463124225</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.04701735625025049</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.2632750164612306</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-8.190617159586893</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.859090457577612</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-9.842915351467099</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>7.924084173100939e-05</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.6579123791155267</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3640484498033015</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.6148129737681783</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.928555720816671</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.340523382091722</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.321358398475755</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.503814238405582</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>3.040203256047119</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.8804378495805988</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.348272298573337</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.9406028315098931</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1009,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
